--- a/finalp/src/main/webapp/resources/db/PAYMENT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PAYMENT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="979" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="57">
   <si>
     <t xml:space="preserve">PAYMENT_ID</t>
   </si>
@@ -183,6 +183,15 @@
   <si>
     <t xml:space="preserve">152149749486339</t>
   </si>
+  <si>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152154108741610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/03/21</t>
+  </si>
 </sst>
 </file>
 
@@ -228,6 +237,7 @@
       <sz val="10"/>
       <name val="돋움"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -316,24 +326,24 @@
   </sheetPr>
   <dimension ref="A1:H1534"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A268" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E296" activeCellId="0" sqref="E296"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="9.94"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9414634146341"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0390243902439"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.7170731707317"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8439024390244"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.619512195122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.0390243902439"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.2926829268293"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.5219512195122"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.0390243902439"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.2926829268293"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.5219512195122"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7121951219512"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7098,6 +7108,29 @@
         <v>11</v>
       </c>
       <c r="H294" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="3" t="n">
+        <v>1521499775760</v>
+      </c>
+      <c r="B295" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D295" s="0" t="n">
+        <v>166000</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G295" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H295" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7352,7 +7385,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>

--- a/finalp/src/main/webapp/resources/db/PAYMENT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PAYMENT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="979" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="58">
   <si>
     <t xml:space="preserve">PAYMENT_ID</t>
   </si>
@@ -192,6 +192,9 @@
   <si>
     <t xml:space="preserve">18/03/21</t>
   </si>
+  <si>
+    <t xml:space="preserve">152159737628112</t>
+  </si>
 </sst>
 </file>
 
@@ -326,24 +329,24 @@
   </sheetPr>
   <dimension ref="A1:H1534"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A268" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E296" activeCellId="0" sqref="E296"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A268" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D305" activeCellId="0" sqref="D305"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9414634146341"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0390243902439"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.7170731707317"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8439024390244"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.619512195122"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.0390243902439"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.2926829268293"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.5219512195122"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.0390243902439"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.2926829268293"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.5219512195122"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7121951219512"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7131,6 +7134,29 @@
         <v>11</v>
       </c>
       <c r="H295" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="3" t="n">
+        <v>1521499775761</v>
+      </c>
+      <c r="B296" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D296" s="3" t="n">
+        <v>292300</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G296" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H296" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7385,7 +7411,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>

--- a/finalp/src/main/webapp/resources/db/PAYMENT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PAYMENT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="983" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="60">
   <si>
     <t xml:space="preserve">PAYMENT_ID</t>
   </si>
@@ -195,6 +195,12 @@
   <si>
     <t xml:space="preserve">152159737628112</t>
   </si>
+  <si>
+    <t xml:space="preserve">152183749892742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/03/22</t>
+  </si>
 </sst>
 </file>
 
@@ -329,24 +335,24 @@
   </sheetPr>
   <dimension ref="A1:H1534"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A268" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D305" activeCellId="0" sqref="D305"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A260" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F272" activeCellId="0" sqref="F272"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="10.71"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3609756097561"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.9756097560976"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5219512195122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.390243902439"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1658536585366"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3268292682927"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.5853658536585"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.809756097561"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.3268292682927"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.5853658536585"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.809756097561"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.6146341463415"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7158,6 +7164,121 @@
       </c>
       <c r="H296" s="0" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="3" t="n">
+        <v>1521499775762</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D297" s="0" t="n">
+        <v>384000</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G297" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H297" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="3" t="n">
+        <v>1521499775763</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D298" s="0" t="n">
+        <v>180000</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G298" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H298" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="3" t="n">
+        <v>1521499775764</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D299" s="0" t="n">
+        <v>42000</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G299" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H299" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="3" t="n">
+        <v>1521499775765</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D300" s="0" t="n">
+        <v>10800</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G300" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H300" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="3" t="n">
+        <v>1521499775766</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D301" s="0" t="n">
+        <v>180000</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G301" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H301" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="1520" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7408,10 +7529,15 @@
     <hyperlink ref="B291" r:id="rId242" display="c24@cornsalad.com"/>
     <hyperlink ref="B292" r:id="rId243" display="c1@cornsalad.com"/>
     <hyperlink ref="B294" r:id="rId244" display="c6@cornsalad.com"/>
+    <hyperlink ref="B297" r:id="rId245" display="c24@cornsalad.com"/>
+    <hyperlink ref="B298" r:id="rId246" display="c26@cornsalad.com"/>
+    <hyperlink ref="B299" r:id="rId247" display="c27@cornsalad.com"/>
+    <hyperlink ref="B300" r:id="rId248" display="c28@cornsalad.com"/>
+    <hyperlink ref="B301" r:id="rId249" display="c29@cornsalad.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>
